--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2834405.127581029</v>
+        <v>-2837352.759867952</v>
       </c>
     </row>
     <row r="7">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.447628153898726</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>5.447628153898726</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>12.32367389561017</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="X6" t="n">
         <v>13.99145537648747</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,23 +1096,23 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.32367389561017</v>
+      </c>
+      <c r="T7" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>13.99145537648747</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.32367389561016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33.70079978025095</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>28.09065875167314</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>48.67402515116256</v>
       </c>
       <c r="U9" t="n">
-        <v>1.515713233384492</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="V9" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>55.26115480377223</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>55.26115480377223</v>
+      </c>
+      <c r="X10" t="n">
         <v>48.67402515116257</v>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>263.7979881934097</v>
       </c>
       <c r="G11" t="n">
         <v>410.2319197440283</v>
       </c>
       <c r="H11" t="n">
-        <v>154.4277202887493</v>
+        <v>287.5432896174202</v>
       </c>
       <c r="I11" t="n">
-        <v>14.98318744981313</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46880962715039</v>
+        <v>93.46880962715028</v>
       </c>
       <c r="T11" t="n">
         <v>200.8983447711116</v>
       </c>
       <c r="U11" t="n">
-        <v>250.939987486148</v>
+        <v>250.9399874861479</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.630390466151</v>
       </c>
       <c r="H12" t="n">
-        <v>86.03235218857861</v>
+        <v>86.03235218857859</v>
       </c>
       <c r="I12" t="n">
-        <v>6.109903807377336</v>
+        <v>6.109903807377265</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>48.96959205502926</v>
+        <v>48.9695920550314</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.01936116235605</v>
+        <v>75.01936116235596</v>
       </c>
       <c r="S13" t="n">
         <v>184.3766231235478</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769638</v>
+        <v>374.4976191876787</v>
       </c>
       <c r="H14" t="n">
-        <v>238.8047027916298</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605506</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516581</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067864</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167829</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>81.97599399093478</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.41527379555095</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032422</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442983</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946974</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>218.0974723923561</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134792</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112664</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200476</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247495</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545721</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179207</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651988</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038394</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297231</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294355</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053443051</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453149</v>
+        <v>54.52629139452989</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221555</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612649</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716138</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843768</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998806</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2245,7 +2245,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684696</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
         <v>135.6366187464139</v>
@@ -2482,7 +2482,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2491,10 +2491,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053443007</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2719,19 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707162</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947556</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645677</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053443019</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139452859</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894972</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3202,10 +3202,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139452974</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295158</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645699</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294355</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453023</v>
+        <v>54.52629139452993</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221561</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139452892</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221583</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424839</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994754</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453</v>
+        <v>54.52629139453031</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4031,7 @@
         <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645677</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4574,7 +4574,7 @@
         <v>1.119316430118998</v>
       </c>
       <c r="M5" t="n">
-        <v>1.119316430118998</v>
+        <v>9.894535296215658</v>
       </c>
       <c r="N5" t="n">
         <v>14.4111990377821</v>
@@ -4589,13 +4589,13 @@
         <v>55.9658215059499</v>
       </c>
       <c r="R5" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="S5" t="n">
         <v>41.83303829737669</v>
       </c>
       <c r="T5" t="n">
-        <v>41.83303829737669</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="U5" t="n">
         <v>27.70025508880348</v>
@@ -4607,10 +4607,10 @@
         <v>27.70025508880348</v>
       </c>
       <c r="X5" t="n">
-        <v>27.70025508880348</v>
+        <v>22.19760038789568</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.70025508880348</v>
+        <v>22.19760038789568</v>
       </c>
     </row>
     <row r="6">
@@ -4668,10 +4668,10 @@
         <v>55.9658215059499</v>
       </c>
       <c r="R6" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="S6" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="T6" t="n">
         <v>41.83303829737669</v>
@@ -4683,10 +4683,10 @@
         <v>29.38488284726541</v>
       </c>
       <c r="W6" t="n">
-        <v>29.38488284726541</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="X6" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="Y6" t="n">
         <v>1.119316430118998</v>
@@ -4729,13 +4729,13 @@
         <v>1.119316430118998</v>
       </c>
       <c r="L7" t="n">
-        <v>1.119316430118998</v>
+        <v>14.9708572528416</v>
       </c>
       <c r="M7" t="n">
-        <v>14.4111990377821</v>
+        <v>28.2627398605047</v>
       </c>
       <c r="N7" t="n">
-        <v>28.2627398605047</v>
+        <v>42.1142806832273</v>
       </c>
       <c r="O7" t="n">
         <v>42.1142806832273</v>
@@ -4744,28 +4744,28 @@
         <v>55.9658215059499</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="R7" t="n">
         <v>41.83303829737669</v>
       </c>
       <c r="S7" t="n">
-        <v>27.70025508880348</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="T7" t="n">
-        <v>27.70025508880348</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="U7" t="n">
-        <v>13.56747188023027</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="V7" t="n">
-        <v>13.56747188023027</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="W7" t="n">
-        <v>13.56747188023027</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="X7" t="n">
-        <v>13.56747188023027</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="Y7" t="n">
         <v>1.119316430118998</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.58657435517306</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="C8" t="n">
-        <v>53.58657435517306</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="D8" t="n">
-        <v>53.58657435517306</v>
+        <v>25.21217157570524</v>
       </c>
       <c r="E8" t="n">
-        <v>53.58657435517306</v>
+        <v>25.21217157570524</v>
       </c>
       <c r="F8" t="n">
-        <v>46.64107360596959</v>
+        <v>18.26667082650177</v>
       </c>
       <c r="G8" t="n">
-        <v>32.7952951637696</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H8" t="n">
-        <v>32.7952951637696</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I8" t="n">
         <v>4.420892384301778</v>
@@ -4826,28 +4826,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R8" t="n">
-        <v>221.0446192150889</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="S8" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="T8" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="U8" t="n">
-        <v>165.2252709284503</v>
+        <v>115.0727317615872</v>
       </c>
       <c r="V8" t="n">
-        <v>109.4059226418117</v>
+        <v>115.0727317615872</v>
       </c>
       <c r="W8" t="n">
-        <v>109.4059226418117</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="X8" t="n">
-        <v>109.4059226418117</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.58657435517306</v>
+        <v>59.25338347494863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="C9" t="n">
         <v>4.420892384301778</v>
@@ -4887,7 +4887,7 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L9" t="n">
-        <v>28.1790930910578</v>
+        <v>50.74343353945604</v>
       </c>
       <c r="M9" t="n">
         <v>82.88763634679231</v>
@@ -4905,16 +4905,16 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R9" t="n">
-        <v>173.4099607122828</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="S9" t="n">
-        <v>117.5906124256442</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="T9" t="n">
-        <v>117.5906124256442</v>
+        <v>116.059588957579</v>
       </c>
       <c r="U9" t="n">
-        <v>116.059588957579</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="V9" t="n">
         <v>60.2402406709404</v>
@@ -4923,10 +4923,10 @@
         <v>60.2402406709404</v>
       </c>
       <c r="X9" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
     </row>
     <row r="10">
@@ -4969,7 +4969,7 @@
         <v>4.420892384301778</v>
       </c>
       <c r="M10" t="n">
-        <v>56.91898944788542</v>
+        <v>59.12943564003628</v>
       </c>
       <c r="N10" t="n">
         <v>111.6275327036199</v>
@@ -4984,10 +4984,10 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2252709284503</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2252709284503</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="T10" t="n">
         <v>165.2252709284503</v>
@@ -4999,10 +4999,10 @@
         <v>109.4059226418117</v>
       </c>
       <c r="W10" t="n">
-        <v>60.2402406709404</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="X10" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="Y10" t="n">
         <v>4.420892384301778</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1781.848274528904</v>
+        <v>1781.84827452891</v>
       </c>
       <c r="C11" t="n">
-        <v>1412.885757588492</v>
+        <v>1412.885757588498</v>
       </c>
       <c r="D11" t="n">
-        <v>1054.620058981742</v>
+        <v>1054.620058981747</v>
       </c>
       <c r="E11" t="n">
-        <v>668.8318063834972</v>
+        <v>1054.620058981747</v>
       </c>
       <c r="F11" t="n">
-        <v>668.8318063834972</v>
+        <v>788.1574446449699</v>
       </c>
       <c r="G11" t="n">
-        <v>254.4561298743777</v>
+        <v>373.7817681358504</v>
       </c>
       <c r="H11" t="n">
-        <v>98.4685336231158</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="I11" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="J11" t="n">
-        <v>330.1740819665742</v>
+        <v>330.1740819665747</v>
       </c>
       <c r="K11" t="n">
-        <v>750.8618951229487</v>
+        <v>750.8618951229496</v>
       </c>
       <c r="L11" t="n">
-        <v>1309.664088962449</v>
+        <v>1309.664088962451</v>
       </c>
       <c r="M11" t="n">
-        <v>1963.108636708788</v>
+        <v>1963.108636708791</v>
       </c>
       <c r="N11" t="n">
-        <v>2631.740408771737</v>
+        <v>2631.74040877174</v>
       </c>
       <c r="O11" t="n">
-        <v>3249.775169718514</v>
+        <v>3249.775169718517</v>
       </c>
       <c r="P11" t="n">
-        <v>3742.752538588086</v>
+        <v>3742.752538588091</v>
       </c>
       <c r="Q11" t="n">
-        <v>4064.785265466189</v>
+        <v>4064.785265466194</v>
       </c>
       <c r="R11" t="n">
-        <v>4166.700042276339</v>
+        <v>4166.700042276345</v>
       </c>
       <c r="S11" t="n">
-        <v>4072.287103259016</v>
+        <v>4072.287103259021</v>
       </c>
       <c r="T11" t="n">
-        <v>3869.359482278095</v>
+        <v>3869.359482278101</v>
       </c>
       <c r="U11" t="n">
-        <v>3615.884747443602</v>
+        <v>3615.884747443608</v>
       </c>
       <c r="V11" t="n">
-        <v>3284.821860100031</v>
+        <v>3284.821860100037</v>
       </c>
       <c r="W11" t="n">
-        <v>2932.053204829917</v>
+        <v>2932.053204829923</v>
       </c>
       <c r="X11" t="n">
-        <v>2558.587446568837</v>
+        <v>2558.587446568843</v>
       </c>
       <c r="Y11" t="n">
-        <v>2168.448114593025</v>
+        <v>2168.448114593031</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.4069867000277</v>
       </c>
       <c r="H12" t="n">
-        <v>89.50562085297864</v>
+        <v>89.50562085297868</v>
       </c>
       <c r="I12" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="J12" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="K12" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="L12" t="n">
-        <v>343.0618648480184</v>
+        <v>343.0618648480153</v>
       </c>
       <c r="M12" t="n">
-        <v>882.9191537048803</v>
+        <v>882.9191537048778</v>
       </c>
       <c r="N12" t="n">
-        <v>1451.473503518032</v>
+        <v>1451.47350351803</v>
       </c>
       <c r="O12" t="n">
-        <v>1949.369862290133</v>
+        <v>1949.369862290131</v>
       </c>
       <c r="P12" t="n">
-        <v>2329.642519279839</v>
+        <v>2329.642519279838</v>
       </c>
       <c r="Q12" t="n">
         <v>2533.925523449198</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>301.7344181724532</v>
+        <v>301.7344181724554</v>
       </c>
       <c r="C13" t="n">
-        <v>132.7982352445462</v>
+        <v>132.7982352445485</v>
       </c>
       <c r="D13" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="E13" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="F13" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="G13" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="H13" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="I13" t="n">
-        <v>83.33400084552679</v>
+        <v>83.3340008455269</v>
       </c>
       <c r="J13" t="n">
-        <v>150.114090178787</v>
+        <v>150.1140901787873</v>
       </c>
       <c r="K13" t="n">
-        <v>389.6911276997644</v>
+        <v>389.6911276997649</v>
       </c>
       <c r="L13" t="n">
-        <v>751.7936868424812</v>
+        <v>751.793686842482</v>
       </c>
       <c r="M13" t="n">
-        <v>1143.969188027847</v>
+        <v>1143.969188027848</v>
       </c>
       <c r="N13" t="n">
-        <v>1532.254248772223</v>
+        <v>1532.254248772224</v>
       </c>
       <c r="O13" t="n">
-        <v>1874.882052613374</v>
+        <v>1874.882052613376</v>
       </c>
       <c r="P13" t="n">
-        <v>2144.538647352764</v>
+        <v>2144.538647352766</v>
       </c>
       <c r="Q13" t="n">
-        <v>2247.79981599852</v>
+        <v>2247.799815998522</v>
       </c>
       <c r="R13" t="n">
-        <v>2172.022683511291</v>
+        <v>2172.022683511294</v>
       </c>
       <c r="S13" t="n">
-        <v>1985.783670255182</v>
+        <v>1985.783670255185</v>
       </c>
       <c r="T13" t="n">
-        <v>1765.352490052158</v>
+        <v>1765.35249005216</v>
       </c>
       <c r="U13" t="n">
-        <v>1476.266671287088</v>
+        <v>1476.26667128709</v>
       </c>
       <c r="V13" t="n">
-        <v>1221.582183081201</v>
+        <v>1221.582183081203</v>
       </c>
       <c r="W13" t="n">
-        <v>932.1650130442404</v>
+        <v>932.1650130442426</v>
       </c>
       <c r="X13" t="n">
-        <v>704.175462146223</v>
+        <v>704.1754621462253</v>
       </c>
       <c r="Y13" t="n">
-        <v>483.3828830026929</v>
+        <v>483.3828830026952</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.026662509057</v>
+        <v>1866.026662509056</v>
       </c>
       <c r="C14" t="n">
         <v>1497.064145568645</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.798446961895</v>
+        <v>1138.798446961894</v>
       </c>
       <c r="E14" t="n">
-        <v>753.0101943636503</v>
+        <v>753.01019436365</v>
       </c>
       <c r="F14" t="n">
-        <v>753.0101943636503</v>
+        <v>753.01019436365</v>
       </c>
       <c r="G14" t="n">
-        <v>338.7027131747979</v>
+        <v>374.7297709417524</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810116</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K14" t="n">
         <v>766.683188695145</v>
@@ -5285,43 +5285,43 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.161510599077</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632627</v>
+        <v>3953.532414632626</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423756</v>
+        <v>3700.063135423755</v>
       </c>
       <c r="V14" t="n">
-        <v>3369.000248080185</v>
+        <v>3369.000248080184</v>
       </c>
       <c r="W14" t="n">
-        <v>3016.231592810071</v>
+        <v>3016.23159281007</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.765834548991</v>
+        <v>2642.76583454899</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.626502573179</v>
+        <v>2252.626502573178</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="L15" t="n">
-        <v>301.7509472448909</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M15" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N15" t="n">
-        <v>1428.524759781582</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O15" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.1441411914567</v>
+        <v>335.1441411914584</v>
       </c>
       <c r="C16" t="n">
-        <v>252.3401068571791</v>
+        <v>166.2079582635515</v>
       </c>
       <c r="D16" t="n">
-        <v>252.3401068571791</v>
+        <v>166.2079582635515</v>
       </c>
       <c r="E16" t="n">
-        <v>252.3401068571791</v>
+        <v>166.2079582635515</v>
       </c>
       <c r="F16" t="n">
-        <v>252.3401068571791</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869775</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042031</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.16862496767</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.766933397539</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685724</v>
+        <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521728</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306092</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100205</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632442</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652268</v>
+        <v>737.5851851652283</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.7926060216965</v>
+        <v>516.7926060216981</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400159</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448909</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M18" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781582</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O18" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281988</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293268</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502113</v>
+        <v>872.862419750214</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477731</v>
+        <v>735.855734147776</v>
       </c>
       <c r="D19" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609092</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039816</v>
+        <v>501.684995803985</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315399</v>
+        <v>386.7245456315435</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749457</v>
+        <v>251.2943450749496</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897945</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
@@ -5686,37 +5686,37 @@
         <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127671</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645595</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073046</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254985</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5771,31 +5771,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694436</v>
       </c>
       <c r="M21" t="n">
-        <v>850.66941185518</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781582</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O21" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281988</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
@@ -5944,10 +5944,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073043</v>
@@ -5978,19 +5978,19 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,40 +5999,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694436</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M24" t="n">
         <v>850.6694118551806</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C25" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315394</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443625</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902799</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039791</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6388,7 +6388,7 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6403,31 +6403,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,10 +6449,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6461,25 +6461,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
         <v>4142.907144767228</v>
@@ -6494,19 +6494,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502118</v>
+        <v>872.8624197502088</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477735</v>
+        <v>735.8557341477705</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609066</v>
+        <v>617.6685920609034</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039822</v>
+        <v>501.6849958039788</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315405</v>
+        <v>386.7245456315371</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749465</v>
+        <v>251.2943450749429</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897916</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6689,46 +6689,46 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400162</v>
@@ -6771,19 +6771,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694436</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M33" t="n">
         <v>850.6694118551806</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897927</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443611</v>
@@ -6871,7 +6871,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
         <v>1784.429621497864</v>
@@ -6923,16 +6923,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
         <v>337.4933016076836</v>
@@ -6944,37 +6944,37 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501802</v>
@@ -7008,22 +7008,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448914</v>
+        <v>538.7790385694436</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551806</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N36" t="n">
         <v>1428.524759781583</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028685</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597202</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352539</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237499</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216582</v>
@@ -7160,10 +7160,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7199,25 +7199,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448914</v>
+        <v>538.7790385694436</v>
       </c>
       <c r="M39" t="n">
         <v>850.6694118551806</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477708</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315374</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749432</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897919</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
         <v>459.5287020443611</v>
@@ -7351,10 +7351,10 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
         <v>2333.272818966195</v>
@@ -7366,16 +7366,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050962</v>
@@ -7424,37 +7424,37 @@
         <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448914</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448914</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M42" t="n">
         <v>850.6694118551806</v>
@@ -7552,40 +7552,40 @@
         <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7634,22 +7634,22 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7658,25 +7658,25 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
@@ -7691,7 +7691,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,16 +7719,16 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511621</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="L45" t="n">
         <v>301.7509472448914</v>
@@ -7801,10 +7801,10 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443611</v>
@@ -7985,7 +7985,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M2" t="n">
-        <v>20.92686739226636</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N2" t="n">
         <v>16.60507348116786</v>
@@ -7997,7 +7997,7 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.51262335026308</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>66.54876907979121</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K3" t="n">
-        <v>34.79817869043559</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.12044141380176</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q3" t="n">
         <v>58.52562482607891</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>66.85797092510069</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L4" t="n">
         <v>55.34730792350439</v>
@@ -8152,7 +8152,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P4" t="n">
-        <v>73.02425275703001</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8222,10 +8222,10 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09656339947136416</v>
+        <v>8.960420839973041</v>
       </c>
       <c r="N5" t="n">
-        <v>8.863857440501675</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>23.15337836011725</v>
@@ -8377,7 +8377,7 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L7" t="n">
-        <v>47.4359690887577</v>
+        <v>61.42742446524517</v>
       </c>
       <c r="M7" t="n">
         <v>60.14952747477967</v>
@@ -8386,7 +8386,7 @@
         <v>51.66696632264114</v>
       </c>
       <c r="O7" t="n">
-        <v>69.30915932737096</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P7" t="n">
         <v>80.57982383258378</v>
@@ -8617,10 +8617,10 @@
         <v>28.48717608127421</v>
       </c>
       <c r="M10" t="n">
-        <v>79.77291888937611</v>
+        <v>82.00569282084165</v>
       </c>
       <c r="N10" t="n">
-        <v>73.43287262928449</v>
+        <v>71.20009869781896</v>
       </c>
       <c r="O10" t="n">
         <v>92.56394902735028</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.747935129969846e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.747935129969846e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>224.8001697047675</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.11008488674379</v>
+        <v>14.11008488674378</v>
       </c>
       <c r="H2" t="n">
         <v>327.2605483852552</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>181.8424978167795</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>298.7773392893286</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.4706880844321</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>143.0780575483017</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>133.1155693286709</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.98318744981296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>99.64588096318309</v>
+        <v>99.64588096318096</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>142.0039615187441</v>
       </c>
       <c r="I13" t="n">
-        <v>87.04722139903285</v>
+        <v>87.04722139903278</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>35.66678718928506</v>
       </c>
       <c r="H14" t="n">
-        <v>48.04716555534023</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27082710769317</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>65.0057742273803</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965138</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674418</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-3.575554679929031e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.008970684779342e-12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.607351301873554e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.584510300745023e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1242874.412190902</v>
+        <v>1242874.4121909</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1338948.037384112</v>
+        <v>1338948.037384113</v>
       </c>
     </row>
     <row r="6">
@@ -26372,13 +26372,13 @@
         <v>73349.67329157663</v>
       </c>
       <c r="E3" t="n">
-        <v>989068.1719036188</v>
+        <v>989068.1719036202</v>
       </c>
       <c r="F3" t="n">
-        <v>19171.42804979291</v>
+        <v>19171.42804979137</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177127</v>
+        <v>25288.16188177131</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3600.952887335828</v>
+        <v>3600.952887335826</v>
       </c>
       <c r="L3" t="n">
-        <v>35733.15137952211</v>
+        <v>35733.15137952229</v>
       </c>
       <c r="M3" t="n">
-        <v>245818.278512139</v>
+        <v>245818.2785121392</v>
       </c>
       <c r="N3" t="n">
-        <v>5040.622549449452</v>
+        <v>5040.622549448934</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.149809006368741e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286674.887145722</v>
+        <v>286674.8871457216</v>
       </c>
       <c r="C4" t="n">
         <v>349184.4550287493</v>
@@ -26427,34 +26427,34 @@
         <v>11099.11420667329</v>
       </c>
       <c r="F4" t="n">
-        <v>11109.76596381449</v>
+        <v>11109.76596381461</v>
       </c>
       <c r="G4" t="n">
+        <v>42179.65104603487</v>
+      </c>
+      <c r="H4" t="n">
         <v>42179.65104603468</v>
       </c>
-      <c r="H4" t="n">
-        <v>42179.65104603462</v>
-      </c>
       <c r="I4" t="n">
-        <v>42179.65104603468</v>
+        <v>42179.65104603469</v>
       </c>
       <c r="J4" t="n">
-        <v>42179.65104603462</v>
+        <v>42179.65104603467</v>
       </c>
       <c r="K4" t="n">
+        <v>42179.65104603461</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42179.65104603471</v>
+      </c>
+      <c r="M4" t="n">
         <v>42179.65104603473</v>
       </c>
-      <c r="L4" t="n">
-        <v>42179.65104603463</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42179.65104603468</v>
-      </c>
       <c r="N4" t="n">
-        <v>42179.65104603464</v>
+        <v>42179.65104603472</v>
       </c>
       <c r="O4" t="n">
-        <v>42179.65104603462</v>
+        <v>42179.65104603475</v>
       </c>
       <c r="P4" t="n">
         <v>42179.65104603468</v>
@@ -26476,40 +26476,40 @@
         <v>45639.02497530233</v>
       </c>
       <c r="E5" t="n">
-        <v>90831.61771086945</v>
+        <v>90831.61771086956</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060699</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-612647.2690153244</v>
+        <v>-612960.1366003325</v>
       </c>
       <c r="C6" t="n">
         <v>-422164.7568075944</v>
@@ -26528,13 +26528,13 @@
         <v>-446181.3695471507</v>
       </c>
       <c r="E6" t="n">
-        <v>-1090998.903821162</v>
+        <v>-1091153.53826014</v>
       </c>
       <c r="F6" t="n">
-        <v>-122730.1900142144</v>
+        <v>-122865.9364839954</v>
       </c>
       <c r="G6" t="n">
-        <v>-162574.2470299613</v>
+        <v>-162574.2470299614</v>
       </c>
       <c r="H6" t="n">
         <v>-137286.0851481899</v>
@@ -26546,22 +26546,22 @@
         <v>-137286.0851481899</v>
       </c>
       <c r="K6" t="n">
-        <v>-140887.0380355259</v>
+        <v>-140887.0380355257</v>
       </c>
       <c r="L6" t="n">
-        <v>-173019.236527712</v>
+        <v>-173019.2365277123</v>
       </c>
       <c r="M6" t="n">
-        <v>-383104.3636603289</v>
+        <v>-383104.3636603293</v>
       </c>
       <c r="N6" t="n">
-        <v>-142326.7076976394</v>
+        <v>-142326.707697639</v>
       </c>
       <c r="O6" t="n">
         <v>-137286.0851481899</v>
       </c>
       <c r="P6" t="n">
-        <v>-137286.08514819</v>
+        <v>-137286.0851481902</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="N2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221397</v>
@@ -26744,7 +26744,7 @@
         <v>396.859943267568</v>
       </c>
       <c r="E3" t="n">
-        <v>1261.365920562803</v>
+        <v>1261.365920562804</v>
       </c>
       <c r="F3" t="n">
         <v>1278.159870620123</v>
@@ -26796,13 +26796,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="E4" t="n">
-        <v>1041.675010569085</v>
+        <v>1041.675010569086</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
@@ -26820,13 +26820,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>70.67851127898325</v>
       </c>
       <c r="E3" t="n">
-        <v>864.5059772952345</v>
+        <v>864.5059772952357</v>
       </c>
       <c r="F3" t="n">
-        <v>16.79395005732044</v>
+        <v>16.79395005731908</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,16 +27018,16 @@
         <v>41.26969942728476</v>
       </c>
       <c r="E4" t="n">
-        <v>986.4138557653126</v>
+        <v>986.4138557653141</v>
       </c>
       <c r="F4" t="n">
-        <v>20.58010161986817</v>
+        <v>20.58010161986613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,19 +27039,19 @@
         <v>13.99145537648747</v>
       </c>
       <c r="L4" t="n">
-        <v>41.26969942728476</v>
+        <v>41.26969942728488</v>
       </c>
       <c r="M4" t="n">
-        <v>986.4138557653126</v>
+        <v>986.4138557653137</v>
       </c>
       <c r="N4" t="n">
-        <v>20.58010161986817</v>
+        <v>20.58010161986658</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,16 +27264,16 @@
         <v>41.26969942728476</v>
       </c>
       <c r="M4" t="n">
-        <v>986.4138557653126</v>
+        <v>986.4138557653141</v>
       </c>
       <c r="N4" t="n">
-        <v>20.58010161986817</v>
+        <v>20.58010161986613</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>182.075876036944</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>74.95115227296735</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8750126833486</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2502406975652</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>87.46059936672498</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.5380826090839</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S3" t="n">
         <v>159.8302714297086</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4559964478956</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I4" t="n">
         <v>139.362079762321</v>
@@ -27591,7 +27591,7 @@
         <v>225.6597533558751</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2898484704602</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.2862135095818</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>67.4992912993288</v>
+        <v>53.50783592284133</v>
       </c>
       <c r="S5" t="n">
-        <v>165.1477724753262</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T5" t="n">
-        <v>217.3557120022016</v>
+        <v>203.3642566257141</v>
       </c>
       <c r="U5" t="n">
-        <v>237.2492949602572</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>364.2834725245703</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.59722706556381</v>
+        <v>42.60577168907633</v>
       </c>
       <c r="S6" t="n">
         <v>158.6512997408977</v>
       </c>
       <c r="T6" t="n">
-        <v>183.3453418466595</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U6" t="n">
         <v>225.8952243311651</v>
@@ -27755,13 +27755,13 @@
         <v>220.4769132538151</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>237.7035277844321</v>
       </c>
       <c r="X6" t="n">
         <v>191.78152982699</v>
       </c>
       <c r="Y6" t="n">
-        <v>191.6912404008169</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.90864702141808</v>
+        <v>22.91719164493061</v>
       </c>
       <c r="R7" t="n">
-        <v>136.8545038266568</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S7" t="n">
-        <v>199.7744901174993</v>
+        <v>201.4422715983766</v>
       </c>
       <c r="T7" t="n">
-        <v>225.4323882309924</v>
+        <v>211.4409328545049</v>
       </c>
       <c r="U7" t="n">
-        <v>272.2954905604636</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>238.1461879473405</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.2609794564846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>320.982241840432</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>323.1357392253592</v>
       </c>
       <c r="I8" t="n">
-        <v>120.8779224254748</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>49.65101377519441</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>117.4033531454492</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T8" t="n">
         <v>216.1119122710508</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2180195592479</v>
+        <v>195.9568647554757</v>
       </c>
       <c r="V8" t="n">
-        <v>272.4911036663627</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>293.9798139136408</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>330.9767838522814</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>117.4473441845435</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S9" t="n">
         <v>100.5663383780076</v>
       </c>
       <c r="T9" t="n">
-        <v>196.7240278659264</v>
+        <v>148.0500027147638</v>
       </c>
       <c r="U9" t="n">
-        <v>224.3695094216562</v>
+        <v>170.6240678512685</v>
       </c>
       <c r="V9" t="n">
-        <v>177.539432345653</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>150.5118303997052</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28056,13 +28056,13 @@
         <v>26.23619181829162</v>
       </c>
       <c r="R10" t="n">
-        <v>89.85405166517774</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S10" t="n">
         <v>211.5447863772357</v>
       </c>
       <c r="T10" t="n">
-        <v>224.8878160949084</v>
+        <v>169.6266612911362</v>
       </c>
       <c r="U10" t="n">
         <v>231.0188391484629</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>237.8489731854284</v>
+        <v>231.2618435328188</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>177.0356302378746</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.3234985483226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221417</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221528</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221403</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235220911</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221585</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="44">
@@ -31045,7 +31045,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I2" t="n">
-        <v>45.97974045605396</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J2" t="n">
         <v>101.2249010189225</v>
@@ -31057,7 +31057,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M2" t="n">
-        <v>209.4193658350064</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N2" t="n">
         <v>212.8079901154231</v>
@@ -31072,13 +31072,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R2" t="n">
-        <v>74.91796566818233</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S2" t="n">
-        <v>27.17757176946579</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T2" t="n">
-        <v>5.220836880782728</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U2" t="n">
         <v>0.09541221027130049</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H3" t="n">
         <v>6.162948071412645</v>
@@ -31209,7 +31209,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K4" t="n">
-        <v>62.15528724543469</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L4" t="n">
         <v>79.5373683577339</v>
@@ -31224,7 +31224,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P4" t="n">
-        <v>64.7037512921176</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q4" t="n">
         <v>44.79752353816112</v>
@@ -31233,7 +31233,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S4" t="n">
-        <v>9.323293086815202</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T4" t="n">
         <v>2.28583607240644</v>
@@ -31607,10 +31607,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>162.552562311951</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M9" t="n">
-        <v>197.3951887257905</v>
+        <v>174.6029256466004</v>
       </c>
       <c r="N9" t="n">
         <v>186.6028668871055</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.07081777110674</v>
+        <v>5.070817771106745</v>
       </c>
       <c r="H11" t="n">
-        <v>51.93151249834691</v>
+        <v>51.93151249834696</v>
       </c>
       <c r="I11" t="n">
-        <v>195.4927021205928</v>
+        <v>195.492702120593</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3793198004711</v>
+        <v>430.3793198004715</v>
       </c>
       <c r="K11" t="n">
-        <v>645.0270360514195</v>
+        <v>645.0270360514201</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2130754139275</v>
+        <v>800.2130754139283</v>
       </c>
       <c r="M11" t="n">
-        <v>890.391230950847</v>
+        <v>890.3912309508478</v>
       </c>
       <c r="N11" t="n">
-        <v>904.7986919430041</v>
+        <v>904.798691943005</v>
       </c>
       <c r="O11" t="n">
-        <v>854.3757477315614</v>
+        <v>854.3757477315622</v>
       </c>
       <c r="P11" t="n">
-        <v>729.1899340073637</v>
+        <v>729.1899340073643</v>
       </c>
       <c r="Q11" t="n">
-        <v>547.5912725796034</v>
+        <v>547.5912725796038</v>
       </c>
       <c r="R11" t="n">
-        <v>318.529756814284</v>
+        <v>318.5297568142843</v>
       </c>
       <c r="S11" t="n">
-        <v>115.5512599590949</v>
+        <v>115.5512599590951</v>
       </c>
       <c r="T11" t="n">
-        <v>22.19750479301977</v>
+        <v>22.19750479301979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4056654216885391</v>
+        <v>0.4056654216885395</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.713126697059613</v>
+        <v>2.713126697059616</v>
       </c>
       <c r="H12" t="n">
-        <v>26.20309204791785</v>
+        <v>26.20309204791787</v>
       </c>
       <c r="I12" t="n">
-        <v>93.41247619262266</v>
+        <v>93.41247619262273</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>400.9057575601688</v>
+        <v>400.9057575601655</v>
       </c>
       <c r="M12" t="n">
-        <v>687.4444267067273</v>
+        <v>687.4444267067279</v>
       </c>
       <c r="N12" t="n">
-        <v>705.639035126921</v>
+        <v>705.6390351269217</v>
       </c>
       <c r="O12" t="n">
-        <v>645.521859365758</v>
+        <v>645.5218593657586</v>
       </c>
       <c r="P12" t="n">
-        <v>518.0882023534274</v>
+        <v>518.0882023534278</v>
       </c>
       <c r="Q12" t="n">
-        <v>346.3282429439604</v>
+        <v>346.3282429439608</v>
       </c>
       <c r="R12" t="n">
-        <v>168.4518487876136</v>
+        <v>168.4518487876137</v>
       </c>
       <c r="S12" t="n">
-        <v>50.39513843003269</v>
+        <v>50.39513843003274</v>
       </c>
       <c r="T12" t="n">
-        <v>10.93580453770958</v>
+        <v>10.93580453770959</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1784951774381325</v>
+        <v>0.1784951774381327</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.274594282982103</v>
+        <v>2.274594282982105</v>
       </c>
       <c r="H13" t="n">
-        <v>20.22321098869544</v>
+        <v>20.22321098869546</v>
       </c>
       <c r="I13" t="n">
-        <v>68.40325352822543</v>
+        <v>68.40325352822551</v>
       </c>
       <c r="J13" t="n">
-        <v>160.8138158068346</v>
+        <v>160.8138158068348</v>
       </c>
       <c r="K13" t="n">
-        <v>264.2664994228297</v>
+        <v>264.26649942283</v>
       </c>
       <c r="L13" t="n">
-        <v>338.1701354899029</v>
+        <v>338.1701354899031</v>
       </c>
       <c r="M13" t="n">
-        <v>356.5529929223672</v>
+        <v>356.5529929223675</v>
       </c>
       <c r="N13" t="n">
-        <v>348.0749596857978</v>
+        <v>348.0749596857981</v>
       </c>
       <c r="O13" t="n">
-        <v>321.5035628345977</v>
+        <v>321.503562834598</v>
       </c>
       <c r="P13" t="n">
-        <v>275.1018394617626</v>
+        <v>275.1018394617628</v>
       </c>
       <c r="Q13" t="n">
-        <v>190.4662540049832</v>
+        <v>190.4662540049833</v>
       </c>
       <c r="R13" t="n">
-        <v>102.2740302148134</v>
+        <v>102.2740302148135</v>
       </c>
       <c r="S13" t="n">
-        <v>39.63997491342445</v>
+        <v>39.63997491342448</v>
       </c>
       <c r="T13" t="n">
-        <v>9.718721027287163</v>
+        <v>9.718721027287172</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1240687790717512</v>
+        <v>0.1240687790717513</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>357.5145194463132</v>
+        <v>357.5145194463138</v>
       </c>
       <c r="M15" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32169,22 +32169,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463132</v>
+        <v>357.5145194463138</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>457.1748150187223</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>357.5145194463138</v>
       </c>
       <c r="M24" t="n">
-        <v>457.1748150187223</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>356.8015786407986</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>457.1748150187223</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>475.6116682468181</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>457.1748150187223</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>356.8015786407986</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879669</v>
+        <v>151.0727449683542</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>356.8015786407986</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463138</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34942,10 +34942,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>8.863857440501677</v>
       </c>
       <c r="N5" t="n">
-        <v>13.42614404814455</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O5" t="n">
         <v>13.99145537648747</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="M7" t="n">
         <v>13.42614404814455</v>
@@ -35106,7 +35106,7 @@
         <v>13.99145537648747</v>
       </c>
       <c r="O7" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>13.99145537648747</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>23.99818253207679</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M9" t="n">
-        <v>55.26115480377223</v>
+        <v>32.46889172458209</v>
       </c>
       <c r="N9" t="n">
         <v>55.26115480377223</v>
@@ -35337,10 +35337,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>55.26115480377223</v>
+      </c>
+      <c r="N10" t="n">
         <v>53.02838087230671</v>
-      </c>
-      <c r="N10" t="n">
-        <v>55.26115480377223</v>
       </c>
       <c r="O10" t="n">
         <v>55.26115480377223</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>249.3334152737848</v>
+        <v>249.3334152737852</v>
       </c>
       <c r="K11" t="n">
-        <v>424.9371850064389</v>
+        <v>424.9371850064395</v>
       </c>
       <c r="L11" t="n">
-        <v>564.4466604439403</v>
+        <v>564.446660443941</v>
       </c>
       <c r="M11" t="n">
-        <v>660.0449977235743</v>
+        <v>660.0449977235751</v>
       </c>
       <c r="N11" t="n">
-        <v>675.3856283464131</v>
+        <v>675.385628346414</v>
       </c>
       <c r="O11" t="n">
-        <v>624.2775363098747</v>
+        <v>624.2775363098755</v>
       </c>
       <c r="P11" t="n">
-        <v>497.9569382520942</v>
+        <v>497.9569382520947</v>
       </c>
       <c r="Q11" t="n">
-        <v>325.2855827051538</v>
+        <v>325.2855827051543</v>
       </c>
       <c r="R11" t="n">
-        <v>102.9442190001519</v>
+        <v>102.9442190001522</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>262.3513777802946</v>
+        <v>262.3513777802913</v>
       </c>
       <c r="M12" t="n">
-        <v>545.3103927847089</v>
+        <v>545.3103927847096</v>
       </c>
       <c r="N12" t="n">
-        <v>574.2973230435878</v>
+        <v>574.2973230435884</v>
       </c>
       <c r="O12" t="n">
-        <v>502.9256149213136</v>
+        <v>502.9256149213141</v>
       </c>
       <c r="P12" t="n">
-        <v>384.1137949390971</v>
+        <v>384.1137949390976</v>
       </c>
       <c r="Q12" t="n">
-        <v>206.3464688579389</v>
+        <v>206.3464688579393</v>
       </c>
       <c r="R12" t="n">
-        <v>22.77234482364963</v>
+        <v>22.77234482364977</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.45463569016187</v>
+        <v>67.45463569016204</v>
       </c>
       <c r="K13" t="n">
-        <v>241.9970075969468</v>
+        <v>241.9970075969471</v>
       </c>
       <c r="L13" t="n">
-        <v>365.760160750219</v>
+        <v>365.7601607502193</v>
       </c>
       <c r="M13" t="n">
-        <v>396.1368698842078</v>
+        <v>396.1368698842081</v>
       </c>
       <c r="N13" t="n">
-        <v>392.2071320650264</v>
+        <v>392.2071320650267</v>
       </c>
       <c r="O13" t="n">
-        <v>346.0886907486374</v>
+        <v>346.0886907486376</v>
       </c>
       <c r="P13" t="n">
-        <v>272.380398726656</v>
+        <v>272.3803987266563</v>
       </c>
       <c r="Q13" t="n">
-        <v>104.3042107532888</v>
+        <v>104.304210753289</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
         <v>107.1851555440239</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>218.960139666439</v>
+        <v>218.9601396664397</v>
       </c>
       <c r="M15" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714178</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892837</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295208</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372958</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386572</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119441</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>218.960139666439</v>
+        <v>218.9601396664397</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193559</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817351</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P19" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>315.040781096704</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36379,7 +36379,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="M24" t="n">
-        <v>315.040781096704</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
@@ -36516,22 +36516,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414991</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36768,7 +36768,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440256</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.040781096704</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
@@ -37236,13 +37236,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
         <v>138.4502995641581</v>
@@ -37312,7 +37312,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381559</v>
       </c>
       <c r="N35" t="n">
         <v>687.4322072151681</v>
@@ -37327,7 +37327,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>344.2699561634848</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553011</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>315.040781096704</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
@@ -37701,22 +37701,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>218.9601396664396</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659486</v>
+        <v>8.938711046335936</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
@@ -37938,22 +37938,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38035,7 +38035,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
         <v>107.1851555440239</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664396</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
